--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Active</t>
   </si>
@@ -154,15 +154,6 @@
     <t>ITL</t>
   </si>
   <si>
-    <t xml:space="preserve">ITL HCM </t>
-  </si>
-  <si>
-    <t>HĐ00909</t>
-  </si>
-  <si>
-    <t>08988989</t>
-  </si>
-  <si>
     <t>01/01/2020</t>
   </si>
   <si>
@@ -179,6 +170,24 @@
   </si>
   <si>
     <t>Salesman</t>
+  </si>
+  <si>
+    <t>Official</t>
+  </si>
+  <si>
+    <t>ITLHCM</t>
+  </si>
+  <si>
+    <t>samuel.an</t>
+  </si>
+  <si>
+    <t>andy.hoa</t>
+  </si>
+  <si>
+    <t>HĐ00901</t>
+  </si>
+  <si>
+    <t>HĐ00900</t>
   </si>
 </sst>
 </file>
@@ -188,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +240,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -277,6 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -558,33 +573,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" customWidth="1"/>
     <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -614,30 +629,30 @@
         <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
+    <row r="2" spans="1:15">
+      <c r="A2" s="8">
+        <v>5858585858</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -646,13 +661,13 @@
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -660,9 +675,11 @@
       <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="L2" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M2" s="7">
         <v>10000000</v>
@@ -674,97 +691,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+    <row r="3" spans="1:15">
+      <c r="A3" s="8">
+        <v>5858585858</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>120</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
-      <formula1>"Offical, Trial, Guarantee, Cash"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>"Official, Trial, Guarantee, Cash"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
       <formula1>"All, Prepaid, Collect"</formula1>
     </dataValidation>
   </dataValidations>
@@ -782,7 +761,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -791,7 +770,7 @@
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -805,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -820,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -835,7 +814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -850,7 +829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -862,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
@@ -871,7 +850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
@@ -880,7 +859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
@@ -889,7 +868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
@@ -898,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
@@ -907,7 +886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -739,12 +739,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
-      <formula1>"Official, Trial, Guarantee, Cash"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Official, Trial, Guaranteed, Cash"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
       <formula1>"All, Prepaid, Collect"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Official, Trial, Guaranteed, Cash"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny.thuong\Desktop\eFms\WebAPI\eFMS.API.SystemWeb\eFMS.API.Catalogue\eFMS.API.Catalogue\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,7 +195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -280,7 +280,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -576,7 +576,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern.lth007\Desktop\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.Catalogue\eFMS.API.Catalogue\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -194,8 +194,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -282,16 +283,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -576,7 +579,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,8 +590,8 @@
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="10" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
@@ -616,10 +619,10 @@
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -645,7 +648,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>5858585858</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -663,10 +666,10 @@
       <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -681,7 +684,7 @@
       <c r="L2" s="1">
         <v>20</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>10000000</v>
       </c>
       <c r="N2" s="1">
@@ -692,7 +695,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>5858585858</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -710,10 +713,10 @@
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -728,7 +731,7 @@
       <c r="L3" s="1">
         <v>20</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>10000000</v>
       </c>
       <c r="N3" s="1">

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny.thuong\Desktop\eFms\WebAPI\eFMS.API.SystemWeb\eFMS.API.Catalogue\eFMS.API.Catalogue\Resources\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Contract" sheetId="1" r:id="rId1"/>
     <sheet name="Master Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Alex Phuong</author>
+    <author>Luis Quang</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -54,15 +55,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Luis Quang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Required khi Agreement Type = Official</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
-  <si>
-    <t>Active</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Payment Term/Trial Day</t>
   </si>
@@ -76,30 +98,12 @@
     <t>Expired Date</t>
   </si>
   <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
     <t>Agreement Type</t>
   </si>
   <si>
     <t>Agreement/Contract No</t>
   </si>
   <si>
-    <t>Agreement Type *</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sale Service *</t>
-  </si>
-  <si>
-    <t>Company *</t>
-  </si>
-  <si>
-    <t>Office *</t>
-  </si>
-  <si>
-    <t>Payment Method *</t>
-  </si>
-  <si>
     <t>Offical</t>
   </si>
   <si>
@@ -148,9 +152,6 @@
     <t>Sale Service</t>
   </si>
   <si>
-    <t>Air Import; Air Export</t>
-  </si>
-  <si>
     <t>ITL</t>
   </si>
   <si>
@@ -166,38 +167,170 @@
     <t>Credit Limited Rate (%)</t>
   </si>
   <si>
-    <t>Customer ID *</t>
-  </si>
-  <si>
-    <t>Salesman</t>
-  </si>
-  <si>
     <t>Official</t>
   </si>
   <si>
-    <t>ITLHCM</t>
-  </si>
-  <si>
-    <t>samuel.an</t>
-  </si>
-  <si>
-    <t>andy.hoa</t>
-  </si>
-  <si>
-    <t>HĐ00901</t>
-  </si>
-  <si>
-    <t>HĐ00900</t>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Salesman </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Company </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Office </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Agreement Type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Sale Service </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Effective Date </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Payment Method </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Base on</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>ITLHCM; ITLHAN</t>
+  </si>
+  <si>
+    <t>luis.quang</t>
+  </si>
+  <si>
+    <t>HĐ00902</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +374,27 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Roboto"/>
@@ -280,18 +434,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -573,181 +746,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" customWidth="1"/>
+    <col min="17" max="17" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="8">
-        <v>5858585858</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="8" customFormat="1">
+      <c r="A2" s="13">
+        <v>54534636</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="12">
         <v>20</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="11">
         <v>10000000</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="11">
         <v>120</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="8">
-        <v>5858585858</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1">
-        <v>20</v>
-      </c>
-      <c r="M3" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="N3" s="1">
-        <v>120</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q2" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"All, Prepaid, Collect"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"Official, Trial, Guaranteed, Cash"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
-      <formula1>"All, Prepaid, Collect"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>"VND,USD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Official, Trial, Guaranteed, Cash"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"Invoice Date, Confirmed Billing"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -761,132 +901,134 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.Catalogue\eFMS.API.Catalogue\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="8235"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="15900" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Contract" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,7 +881,7 @@
       <formula1>"All, Prepaid, Collect"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"Official, Trial, Guaranteed, Cash"</formula1>
+      <formula1>"Official, Trial, Guarantee, Cash"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
       <formula1>"VND,USD"</formula1>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.Catalogue\eFMS.API.Catalogue\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="8235"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="15900" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Contract" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>Credit Limited Rate (%)</t>
   </si>
   <si>
-    <t>Official</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>HĐ00902</t>
+  </si>
+  <si>
+    <t>Guaranteed</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,37 +773,37 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>25</v>
@@ -821,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="8" customFormat="1">
@@ -829,19 +829,19 @@
         <v>54534636</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>13</v>
@@ -856,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>11</v>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O2" s="11">
         <v>10000000</v>
@@ -881,7 +881,7 @@
       <formula1>"All, Prepaid, Collect"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"Official, Trial, Guaranteed, Cash"</formula1>
+      <formula1>"Official, Trial, Guarantee, Cash"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
       <formula1>"VND,USD"</formula1>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/CustomerContractImportTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="15900" windowHeight="8235"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="15900" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Contract" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Payment Term/Trial Day</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t>HĐ00902</t>
-  </si>
-  <si>
-    <t>Guaranteed</t>
   </si>
 </sst>
 </file>
@@ -841,7 +838,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>13</v>
